--- a/temp/plotting_activation_functions.xlsx
+++ b/temp/plotting_activation_functions.xlsx
@@ -5,27 +5,28 @@
   <fileSharing readOnlyRecommended="0" userName="doleron"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sigmoid" sheetId="1" r:id="rId4"/>
     <sheet name="tanh" sheetId="2" r:id="rId5"/>
-    <sheet name="ReLU" sheetId="3" r:id="rId6"/>
+    <sheet name="relu" sheetId="3" r:id="rId6"/>
+    <sheet name="identity" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1683500826" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1683500826" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1683500826"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1683500826"/>
+      <pm:revision xmlns:pm="smNativeData" day="1683502642" val="1062" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1683502642" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1683502642"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1683502642"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -33,10 +34,16 @@
     <t>sigmoid(x)</t>
   </si>
   <si>
+    <t>derivative</t>
+  </si>
+  <si>
     <t>tanh(x)</t>
   </si>
   <si>
     <t>ReLU(x)</t>
+  </si>
+  <si>
+    <t>Identity(x)</t>
   </si>
 </sst>
 </file>
@@ -62,7 +69,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1683500826" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1683502642" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -77,7 +84,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1683500826" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1683502642" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -92,7 +99,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1683500826" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1683502642" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -114,7 +121,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1683500826" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1683502642" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -136,7 +143,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1683500826"/>
+          <pm:border xmlns:pm="smNativeData" id="1683502642"/>
         </ext>
       </extLst>
     </border>
@@ -155,7 +162,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1683500826"/>
+          <pm:border xmlns:pm="smNativeData" id="1683502642"/>
         </ext>
       </extLst>
     </border>
@@ -163,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -174,7 +182,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1683500826" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1683502642" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -188,35 +196,7 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-us" sz="905" b="1" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Basic Sans" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Sigmoid</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -227,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>sigmoid!$A$1</c:f>
+              <c:f>sigmoid!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x</c:v>
+                  <c:v>sigmoid(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -253,7 +233,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-us" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr lang="en-us" sz="995" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -890,6 +870,712 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.993307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sigmoid!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>derivative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-us" sz="995" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sigmoid!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00000E+00">
+                  <c:v>-1.02696E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sigmoid!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.00664806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00733691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00809594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00893206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00985276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0108662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0119813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0132077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0145558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0160367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0176627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0194467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0214025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0235449</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0258896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.028453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0312525</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0343059</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0376318</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.041249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0451767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0494336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0540381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0590077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0643583</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0701037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.076255</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0828196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0898003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0971947</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.104994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.121729</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.130606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.139764</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.149146</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.158685</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.168298</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.177894</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18737</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.196612</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2055</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.21391</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.221713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.228784</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.235004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.240261</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.244458</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.247517</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.249376</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.249376</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.247517</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.244458</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.240261</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.235004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.228784</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.221713</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21391</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2055</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.196612</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18737</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.177894</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.168298</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.158685</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.149146</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.139764</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.130606</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.121729</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.11318</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.104994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0971947</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0898003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0828196</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.076255</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0701037</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0643583</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0590077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0540381</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0494336</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0451767</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.041249</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0376318</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0343059</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0312525</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.028453</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0258896</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0235449</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0214025</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0194467</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0176627</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0160367</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0145558</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0132077</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0119813</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0108662</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.00985276</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.00893206</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.00809594</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.00733691</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.00664806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +1645,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -969,7 +1655,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="11"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.000000"/>
         <c:majorUnit val="1.000000"/>
       </c:valAx>
       <c:valAx>
@@ -977,6 +1663,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.000000"/>
+          <c:min val="0.000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -990,7 +1677,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="995" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1000,10 +1687,29 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:majorUnit val="0.100000"/>
+        <c:crossesAt val="0.000000"/>
+        <c:majorUnit val="0.250000"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-us" sz="1370" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Basic Sans" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -1013,7 +1719,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-us" sz="905" b="0" i="0" u="none" strike="noStrike">
+        <a:defRPr lang="en-us" sz="1370" b="0" i="0" u="none" strike="noStrike">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1024,7 +1730,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1683500826" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1683502642" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -1036,35 +1742,7 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-us" sz="905" b="1" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Basic Sans" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Tanh</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1075,11 +1753,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tanh!$A$1</c:f>
+              <c:f>tanh!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x</c:v>
+                  <c:v>tanh(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,7 +1779,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-us" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr lang="en-us" sz="995" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1738,6 +2416,712 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.999909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tanh!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>derivative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-us" sz="995" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tanh!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00000E+00">
+                  <c:v>-1.02696E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tanh!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.000181583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000221782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000270878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000330842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000404076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000493517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000602751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000736152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000899065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00109801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00134095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0016376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0019998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00244202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00298189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00364088</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00444519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0054267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0066242</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00808487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00986604</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0120372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0146827</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0179042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0218248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0265922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0323838</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0394111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0479253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.058223</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0706508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0856099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.103558</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.150527</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.180707</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.216152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.257433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.30502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.359201</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.419974</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.486917</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.559055</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63474</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.711578</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.786448</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.855639</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.915137</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.961043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.990066</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.990066</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.961043</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.915137</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.855639</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.786448</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.711578</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63474</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.559055</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.486917</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.419974</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.359201</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.30502</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.257433</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.216152</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.180707</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.150527</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.12501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.103558</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0856099</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0706508</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.058223</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0479253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0394111</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0323838</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0265922</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0218248</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0179042</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0146827</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0120372</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.00986604</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.00808487</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0066242</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0054267</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.00444519</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.00364088</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.00298189</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.00244202</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0019998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0016376</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.00134095</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.00109801</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.000899065</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.000736152</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.000602751</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.000493517</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.000404076</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.000330842</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.000270878</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.000221782</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.000181583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,7 +3191,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1817,7 +3201,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="11"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.000000"/>
         <c:majorUnit val="1.000000"/>
       </c:valAx>
       <c:valAx>
@@ -1839,7 +3223,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="995" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1849,10 +3233,29 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:majorUnit val="0.200000"/>
+        <c:crossesAt val="0.000000"/>
+        <c:majorUnit val="0.500000"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-us" sz="1370" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Basic Sans" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -1862,7 +3265,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-us" sz="905" b="0" i="0" u="none" strike="noStrike">
+        <a:defRPr lang="en-us" sz="1370" b="0" i="0" u="none" strike="noStrike">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1873,7 +3276,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1683500826" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1683502642" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -1885,35 +3288,7 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-us" sz="905" b="1" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Basic Sans" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>ReLU</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1924,11 +3299,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ReLU!$A$1</c:f>
+              <c:f>relu!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x</c:v>
+                  <c:v>ReLU(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1950,7 +3325,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-us" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1969,7 +3344,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>ReLU!$A$2:$A$102</c:f>
+              <c:f>relu!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2123,8 +3498,8 @@
                 <c:pt idx="49">
                   <c:v>-0.1</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.00000E+00">
-                  <c:v>-1.02696E-15</c:v>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.1</c:v>
@@ -2281,7 +3656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ReLU!$B$2:$B$102</c:f>
+              <c:f>relu!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2435,7 +3810,7 @@
                 <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.00000E+00">
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
@@ -2587,6 +3962,712 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>relu!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>derivative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>relu!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>relu!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2656,7 +4737,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2666,14 +4747,14 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="11"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.000000"/>
         <c:majorUnit val="1.000000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="11"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.000000"/>
+          <c:max val="4.000000"/>
           <c:min val="-1.000000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2688,7 +4769,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2698,10 +4779,29 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:majorUnit val="0.200000"/>
+        <c:crossesAt val="0.000000"/>
+        <c:majorUnit val="0.500000"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-us" sz="1135" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Basic Sans" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2711,7 +4811,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-us" sz="905" b="0" i="0" u="none" strike="noStrike">
+        <a:defRPr lang="en-us" sz="1135" b="0" i="0" u="none" strike="noStrike">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2722,7 +4822,1553 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1683500826" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1683502642" val="7"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>identity!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Identity(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>identity!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00000E+00">
+                  <c:v>-1.02696E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>identity!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00000E+00">
+                  <c:v>-1.02696E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>identity!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>derivative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>identity!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00000E+00">
+                  <c:v>-1.02696E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>identity!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="11"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000"/>
+          <c:min val="-5.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Basic Sans" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11"/>
+        <c:crossesAt val="0.000000"/>
+        <c:majorUnit val="1.000000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="11"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000"/>
+          <c:min val="-5.000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-us" sz="825" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Basic Sans" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crossesAt val="0.000000"/>
+        <c:majorUnit val="1.000000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-us" sz="1135" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Basic Sans" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr/>
+  <c:txPr>
+    <a:bodyPr anchor="ctr" anchorCtr="1" rot="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-us" sz="1135" b="0" i="0" u="none" strike="noStrike">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Basic Sans"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext xmlns:sm="smo" uri="smo">
+      <sm:colorScheme xmlns:sm="smo" id="1683502642" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -2732,16 +6378,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204470</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>208280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2767,16 +6413,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204470</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>208280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2802,16 +6448,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>208280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3089,835 +6770,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="n">
         <v>-5</v>
       </c>
       <c r="B2" t="n">
         <v>0.00669284999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0.00664806000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="n">
         <v>-4.90000000000000036</v>
       </c>
       <c r="B3" t="n">
         <v>0.00739154000000000089</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0.00733691000000000138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="n">
         <v>-4.79999999999999982</v>
       </c>
       <c r="B4" t="n">
         <v>0.00816257000000000055</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>0.0080959399999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="n">
         <v>-4.70000000000000018</v>
       </c>
       <c r="B5" t="n">
         <v>0.00901330000000000098</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0.00893205999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="n">
         <v>-4.59999999999999964</v>
       </c>
       <c r="B6" t="n">
         <v>0.00995179999999999865</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>0.00985275999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="n">
         <v>-4.5</v>
       </c>
       <c r="B7" t="n">
         <v>0.0109869000000000018</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="n">
+        <v>0.0108661999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="n">
         <v>-4.40000000000000036</v>
       </c>
       <c r="B8" t="n">
         <v>0.0121283999999999992</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="n">
+        <v>0.0119812999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="n">
         <v>-4.29999999999999982</v>
       </c>
       <c r="B9" t="n">
         <v>0.0133869000000000016</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="n">
+        <v>0.0132077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="n">
         <v>-4.20000000000000018</v>
       </c>
       <c r="B10" t="n">
         <v>0.0147740000000000009</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="n">
+        <v>0.0145558000000000032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="n">
         <v>-4.09999999999999964</v>
       </c>
       <c r="B11" t="n">
         <v>0.0163025000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="n">
+        <v>0.0160367000000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="n">
         <v>-4</v>
       </c>
       <c r="B12" t="n">
         <v>0.0179862000000000011</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="n">
+        <v>0.0176627000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="n">
         <v>-3.9</v>
       </c>
       <c r="B13" t="n">
         <v>0.0198403000000000027</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="n">
+        <v>0.0194466999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="n">
         <v>-3.79999999999999982</v>
       </c>
       <c r="B14" t="n">
         <v>0.0218812999999999969</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="n">
+        <v>0.0214024999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="n">
         <v>-3.70000000000000018</v>
       </c>
       <c r="B15" t="n">
         <v>0.0241270000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="n">
+        <v>0.0235449000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="n">
         <v>-3.60000000000000009</v>
       </c>
       <c r="B16" t="n">
         <v>0.0265969999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="n">
+        <v>0.0258896000000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="n">
         <v>-3.5</v>
       </c>
       <c r="B17" t="n">
         <v>0.0293121999999999971</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="n">
+        <v>0.0284529999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="n">
         <v>-3.39999999999999991</v>
       </c>
       <c r="B18" t="n">
         <v>0.032295499999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="n">
+        <v>0.0312525000000000031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="n">
         <v>-3.29999999999999982</v>
       </c>
       <c r="B19" t="n">
         <v>0.0355711999999999984</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="n">
+        <v>0.0343059000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="n">
         <v>-3.20000000000000018</v>
       </c>
       <c r="B20" t="n">
         <v>0.0391656999999999975</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="n">
+        <v>0.0376317999999999975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="n">
         <v>-3.10000000000000009</v>
       </c>
       <c r="B21" t="n">
         <v>0.0431073000000000039</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="n">
+        <v>0.0412490000000000023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="n">
         <v>-3</v>
       </c>
       <c r="B22" t="n">
         <v>0.0474258999999999986</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="n">
+        <v>0.0451767000000000074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="n">
         <v>-2.9</v>
       </c>
       <c r="B23" t="n">
         <v>0.0521536000000000044</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="n">
+        <v>0.049433600000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="n">
         <v>-2.79999999999999982</v>
       </c>
       <c r="B24" t="n">
         <v>0.0573242000000000029</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="n">
+        <v>0.0540381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="n">
         <v>-2.70000000000000018</v>
       </c>
       <c r="B25" t="n">
         <v>0.0629734000000000016</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="n">
+        <v>0.0590077000000000051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="n">
         <v>-2.60000000000000009</v>
       </c>
       <c r="B26" t="n">
         <v>0.0691384000000000043</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="n">
+        <v>0.0643582999999999927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="n">
         <v>-2.5</v>
       </c>
       <c r="B27" t="n">
         <v>0.0758582000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="n">
+        <v>0.0701036999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="n">
         <v>-2.39999999999999991</v>
       </c>
       <c r="B28" t="n">
         <v>0.0831727000000000061</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="n">
+        <v>0.0762550000000000061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="n">
         <v>-2.29999999999999982</v>
       </c>
       <c r="B29" t="n">
         <v>0.091122999999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="n">
+        <v>0.0828195999999999977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="n">
         <v>-2.20000000000000018</v>
       </c>
       <c r="B30" t="n">
         <v>0.099750500000000013</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="n">
+        <v>0.0898002999999999929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="n">
         <v>-2.10000000000000009</v>
       </c>
       <c r="B31" t="n">
         <v>0.109097</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="n">
+        <v>0.0971946999999999939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="n">
         <v>-2</v>
       </c>
       <c r="B32" t="n">
         <v>0.119202999999999992</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="n">
+        <v>0.10499400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="n">
         <v>-1.9</v>
       </c>
       <c r="B33" t="n">
         <v>0.130108000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="n">
+        <v>0.113180000000000014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="n">
         <v>-1.8</v>
       </c>
       <c r="B34" t="n">
         <v>0.141850999999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="n">
+        <v>0.121728999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="n">
         <v>-1.7</v>
       </c>
       <c r="B35" t="n">
         <v>0.154464999999999986</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="n">
+        <v>0.130606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="n">
         <v>-1.60000000000000009</v>
       </c>
       <c r="B36" t="n">
         <v>0.167981999999999987</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="n">
+        <v>0.139763999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="n">
         <v>-1.5</v>
       </c>
       <c r="B37" t="n">
         <v>0.182425999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="n">
+        <v>0.149146000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="n">
         <v>-1.39999999999999991</v>
       </c>
       <c r="B38" t="n">
         <v>0.197815999999999992</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="n">
+        <v>0.158684999999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="n">
         <v>-1.30000000000000004</v>
       </c>
       <c r="B39" t="n">
         <v>0.214164999999999983</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="n">
+        <v>0.168298000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="n">
         <v>-1.19999999999999996</v>
       </c>
       <c r="B40" t="n">
         <v>0.231475000000000009</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="n">
+        <v>0.177893999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="n">
         <v>-1.10000000000000009</v>
       </c>
       <c r="B41" t="n">
         <v>0.249739999999999984</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="n">
+        <v>0.187370000000000019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="n">
         <v>-1</v>
       </c>
       <c r="B42" t="n">
         <v>0.268940999999999963</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="n">
+        <v>0.196612000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="n">
         <v>-0.9</v>
       </c>
       <c r="B43" t="n">
         <v>0.289049999999999976</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="n">
+        <v>0.205499999999999972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="n">
         <v>-0.8</v>
       </c>
       <c r="B44" t="n">
         <v>0.310026000000000046</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="n">
+        <v>0.21391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="n">
         <v>-0.7</v>
       </c>
       <c r="B45" t="n">
         <v>0.331811999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="n">
+        <v>0.221713000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="n">
         <v>-0.6</v>
       </c>
       <c r="B46" t="n">
         <v>0.354343999999999992</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="n">
+        <v>0.22878400000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="n">
         <v>-0.5</v>
       </c>
       <c r="B47" t="n">
         <v>0.377540999999999993</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="n">
+        <v>0.235003999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="n">
         <v>-0.4</v>
       </c>
       <c r="B48" t="n">
         <v>0.40131199999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="n">
+        <v>0.240261000000000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="n">
         <v>-0.3</v>
       </c>
       <c r="B49" t="n">
         <v>0.425557000000000052</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="n">
+        <v>0.24445800000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="n">
         <v>-0.2</v>
       </c>
       <c r="B50" t="n">
         <v>0.450166000000000022</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="n">
+        <v>0.247516999999999987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="n">
         <v>-0.1</v>
       </c>
       <c r="B51" t="n">
         <v>0.475021000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="n">
+        <v>0.249375999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="n">
         <v>-1.026960000000000027E-15</v>
       </c>
       <c r="B52" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="n">
         <v>0.1</v>
       </c>
       <c r="B53" t="n">
         <v>0.524978999999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="n">
+        <v>0.249375999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="n">
         <v>0.2</v>
       </c>
       <c r="B54" t="n">
         <v>0.549834000000000067</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="n">
+        <v>0.247516999999999987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="n">
         <v>0.3</v>
       </c>
       <c r="B55" t="n">
         <v>0.574443000000000037</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="n">
+        <v>0.24445800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="n">
         <v>0.4</v>
       </c>
       <c r="B56" t="n">
         <v>0.59868800000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="n">
+        <v>0.240261000000000013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="n">
         <v>0.5</v>
       </c>
       <c r="B57" t="n">
         <v>0.622459000000000007</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="n">
+        <v>0.235003999999999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="n">
         <v>0.6</v>
       </c>
       <c r="B58" t="n">
         <v>0.645655999999999963</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="n">
+        <v>0.22878400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="n">
         <v>0.7</v>
       </c>
       <c r="B59" t="n">
         <v>0.66818799999999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="n">
+        <v>0.221713000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="n">
         <v>0.8</v>
       </c>
       <c r="B60" t="n">
         <v>0.689973999999999954</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="n">
+        <v>0.21391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="n">
         <v>0.9</v>
       </c>
       <c r="B61" t="n">
         <v>0.710949999999999971</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="n">
+        <v>0.205499999999999972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="n">
         <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0.731059000000000037</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="n">
+        <v>0.196612000000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="n">
         <v>1.10000000000000009</v>
       </c>
       <c r="B63" t="n">
         <v>0.750260000000000016</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="n">
+        <v>0.187370000000000019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="n">
         <v>1.19999999999999996</v>
       </c>
       <c r="B64" t="n">
         <v>0.768524999999999991</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="n">
+        <v>0.177893999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="n">
         <v>1.30000000000000004</v>
       </c>
       <c r="B65" t="n">
         <v>0.785834999999999972</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="n">
+        <v>0.168298000000000014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="n">
         <v>1.39999999999999991</v>
       </c>
       <c r="B66" t="n">
         <v>0.802184000000000097</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="n">
+        <v>0.158684999999999992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="n">
         <v>1.5</v>
       </c>
       <c r="B67" t="n">
         <v>0.817574000000000112</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="n">
+        <v>0.149146000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="n">
         <v>1.60000000000000009</v>
       </c>
       <c r="B68" t="n">
         <v>0.832018000000000058</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="n">
+        <v>0.139763999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="n">
         <v>1.7</v>
       </c>
       <c r="B69" t="n">
         <v>0.845535000000000103</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="n">
+        <v>0.130606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="n">
         <v>1.8</v>
       </c>
       <c r="B70" t="n">
         <v>0.858149000000000051</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="n">
+        <v>0.121728999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="n">
         <v>1.9</v>
       </c>
       <c r="B71" t="n">
         <v>0.869891999999999932</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="n">
+        <v>0.113180000000000014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="n">
         <v>2</v>
       </c>
       <c r="B72" t="n">
         <v>0.880797000000000097</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="n">
+        <v>0.10499400000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="n">
         <v>2.10000000000000009</v>
       </c>
       <c r="B73" t="n">
         <v>0.890902999999999956</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="n">
+        <v>0.0971946999999999939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="n">
         <v>2.20000000000000018</v>
       </c>
       <c r="B74" t="n">
         <v>0.90024999999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="n">
+        <v>0.0898002999999999929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="n">
         <v>2.29999999999999982</v>
       </c>
       <c r="B75" t="n">
         <v>0.908877000000000024</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="n">
+        <v>0.0828195999999999977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="n">
         <v>2.39999999999999991</v>
       </c>
       <c r="B76" t="n">
         <v>0.91682699999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="n">
+        <v>0.0762550000000000061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="n">
         <v>2.5</v>
       </c>
       <c r="B77" t="n">
         <v>0.924141999999999975</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="n">
+        <v>0.0701036999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="n">
         <v>2.60000000000000009</v>
       </c>
       <c r="B78" t="n">
         <v>0.930861999999999945</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="n">
+        <v>0.0643582999999999927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="n">
         <v>2.70000000000000018</v>
       </c>
       <c r="B79" t="n">
         <v>0.937027000000000143</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" t="n">
+        <v>0.0590077000000000051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="n">
         <v>2.79999999999999982</v>
       </c>
       <c r="B80" t="n">
         <v>0.942675999999999981</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="n">
+        <v>0.0540381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="n">
         <v>2.9</v>
       </c>
       <c r="B81" t="n">
         <v>0.947846000000000011</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="n">
+        <v>0.049433600000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="n">
         <v>3</v>
       </c>
       <c r="B82" t="n">
         <v>0.952574000000000076</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="n">
+        <v>0.0451767000000000074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="n">
         <v>3.10000000000000009</v>
       </c>
       <c r="B83" t="n">
         <v>0.956892999999999994</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" t="n">
+        <v>0.0412490000000000023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="n">
         <v>3.20000000000000018</v>
       </c>
       <c r="B84" t="n">
         <v>0.96083400000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" t="n">
+        <v>0.0376317999999999975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="n">
         <v>3.29999999999999982</v>
       </c>
       <c r="B85" t="n">
         <v>0.964428999999999981</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="n">
+        <v>0.0343059000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="n">
         <v>3.39999999999999991</v>
       </c>
       <c r="B86" t="n">
         <v>0.967705000000000126</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" t="n">
+        <v>0.0312525000000000031</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="n">
         <v>3.5</v>
       </c>
       <c r="B87" t="n">
         <v>0.970687999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="n">
+        <v>0.0284529999999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="n">
         <v>3.60000000000000009</v>
       </c>
       <c r="B88" t="n">
         <v>0.973403000000000063</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" t="n">
+        <v>0.0258896000000000015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="n">
         <v>3.70000000000000018</v>
       </c>
       <c r="B89" t="n">
         <v>0.97587299999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" t="n">
+        <v>0.0235449000000000019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="n">
         <v>3.79999999999999982</v>
       </c>
       <c r="B90" t="n">
         <v>0.978118999999999872</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="n">
+        <v>0.0214024999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="n">
         <v>3.9</v>
       </c>
       <c r="B91" t="n">
         <v>0.980160000000000053</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="n">
+        <v>0.0194466999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="n">
         <v>4</v>
       </c>
       <c r="B92" t="n">
         <v>0.982014000000000031</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="n">
+        <v>0.0176627000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="n">
         <v>4.09999999999999964</v>
       </c>
       <c r="B93" t="n">
         <v>0.98369800000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" t="n">
+        <v>0.0160367000000000015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="n">
         <v>4.20000000000000018</v>
       </c>
       <c r="B94" t="n">
         <v>0.985226000000000113</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" t="n">
+        <v>0.0145558000000000032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="n">
         <v>4.29999999999999982</v>
       </c>
       <c r="B95" t="n">
         <v>0.986613000000000007</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" t="n">
+        <v>0.0132077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="n">
         <v>4.40000000000000036</v>
       </c>
       <c r="B96" t="n">
         <v>0.98787199999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" t="n">
+        <v>0.0119812999999999992</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="n">
         <v>4.5</v>
       </c>
       <c r="B97" t="n">
         <v>0.989013000000000098</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" t="n">
+        <v>0.0108661999999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="n">
         <v>4.59999999999999964</v>
       </c>
       <c r="B98" t="n">
         <v>0.990047999999999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="n">
+        <v>0.00985275999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="n">
         <v>4.70000000000000018</v>
       </c>
       <c r="B99" t="n">
         <v>0.990986999999999973</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="n">
+        <v>0.00893205999999999989</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="n">
         <v>4.79999999999999982</v>
       </c>
       <c r="B100" t="n">
         <v>0.991836999999999946</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="n">
+        <v>0.0080959399999999988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="n">
         <v>4.90000000000000036</v>
       </c>
       <c r="B101" t="n">
         <v>0.992608000000000068</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" t="n">
+        <v>0.00733691000000000138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="n">
         <v>5</v>
       </c>
       <c r="B102" t="n">
         <v>0.993307000000000073</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.00664806000000000008</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1683500826" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1683502642" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3926,15 +7913,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1683500826" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1683500826" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683500826" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683502642" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3945,835 +7932,1141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="A2" sqref="A2:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="n">
         <v>-5</v>
       </c>
       <c r="B2" t="n">
         <v>-0.99990900000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0.000181583000000000023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="n">
         <v>-4.90000000000000036</v>
       </c>
       <c r="B3" t="n">
         <v>-0.999888999999999939</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0.000221782000000000057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="n">
         <v>-4.79999999999999982</v>
       </c>
       <c r="B4" t="n">
         <v>-0.999864999999999959</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>0.000270877999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="n">
         <v>-4.70000000000000018</v>
       </c>
       <c r="B5" t="n">
         <v>-0.999835000000000029</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0.000330842000000000036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="n">
         <v>-4.59999999999999964</v>
       </c>
       <c r="B6" t="n">
         <v>-0.999798000000000009</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>0.000404075999999999969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="n">
         <v>-4.5</v>
       </c>
       <c r="B7" t="n">
         <v>-0.999752999999999936</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="n">
+        <v>0.000493516999999999939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="n">
         <v>-4.40000000000000036</v>
       </c>
       <c r="B8" t="n">
         <v>-0.999699000000000026</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="n">
+        <v>0.000602751000000000037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="n">
         <v>-4.29999999999999982</v>
       </c>
       <c r="B9" t="n">
         <v>-0.999631999999999898</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="n">
+        <v>0.000736151999999999873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="n">
         <v>-4.20000000000000018</v>
       </c>
       <c r="B10" t="n">
         <v>-0.999549999999999983</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="n">
+        <v>0.000899065000000000047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="n">
         <v>-4.09999999999999964</v>
       </c>
       <c r="B11" t="n">
         <v>-0.999451000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="n">
+        <v>0.00109800999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="n">
         <v>-4</v>
       </c>
       <c r="B12" t="n">
         <v>-0.999329000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="n">
+        <v>0.00134095000000000031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="n">
         <v>-3.9</v>
       </c>
       <c r="B13" t="n">
         <v>-0.999180999999999919</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="n">
+        <v>0.00163759999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="n">
         <v>-3.79999999999999982</v>
       </c>
       <c r="B14" t="n">
         <v>-0.999000000000000021</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="n">
+        <v>0.00199980000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="n">
         <v>-3.70000000000000018</v>
       </c>
       <c r="B15" t="n">
         <v>-0.998778000000000077</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="n">
+        <v>0.00244201999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="n">
         <v>-3.60000000000000009</v>
       </c>
       <c r="B16" t="n">
         <v>-0.998507999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="n">
+        <v>0.00298189000000000028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="n">
         <v>-3.5</v>
       </c>
       <c r="B17" t="n">
         <v>-0.998178000000000054</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="n">
+        <v>0.00364087999999999967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="n">
         <v>-3.39999999999999991</v>
       </c>
       <c r="B18" t="n">
         <v>-0.997775000000000034</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="n">
+        <v>0.0044451900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="n">
         <v>-3.29999999999999982</v>
       </c>
       <c r="B19" t="n">
         <v>-0.997283000000000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="n">
+        <v>0.0054267000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="n">
         <v>-3.20000000000000018</v>
       </c>
       <c r="B20" t="n">
         <v>-0.996682000000000023</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="n">
+        <v>0.00662420000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="n">
         <v>-3.10000000000000009</v>
       </c>
       <c r="B21" t="n">
         <v>-0.995948999999999884</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="n">
+        <v>0.00808486999999999867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="n">
         <v>-3</v>
       </c>
       <c r="B22" t="n">
         <v>-0.995054999999999978</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="n">
+        <v>0.00986603999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="n">
         <v>-2.9</v>
       </c>
       <c r="B23" t="n">
         <v>-0.993963000000000108</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="n">
+        <v>0.012037199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="n">
         <v>-2.79999999999999982</v>
       </c>
       <c r="B24" t="n">
         <v>-0.992632000000000048</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="n">
+        <v>0.0146826999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="n">
         <v>-2.70000000000000018</v>
       </c>
       <c r="B25" t="n">
         <v>-0.991006999999999927</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="n">
+        <v>0.0179041999999999968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="n">
         <v>-2.60000000000000009</v>
       </c>
       <c r="B26" t="n">
         <v>-0.989026999999999923</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="n">
+        <v>0.0218247999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="n">
         <v>-2.5</v>
       </c>
       <c r="B27" t="n">
         <v>-0.986613999999999969</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="n">
+        <v>0.0265921999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="n">
         <v>-2.39999999999999991</v>
       </c>
       <c r="B28" t="n">
         <v>-0.983675000000000033</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="n">
+        <v>0.0323837999999999937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="n">
         <v>-2.29999999999999982</v>
       </c>
       <c r="B29" t="n">
         <v>-0.980095999999999989</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="n">
+        <v>0.0394111000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="n">
         <v>-2.20000000000000018</v>
       </c>
       <c r="B30" t="n">
         <v>-0.975742999999999938</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="n">
+        <v>0.0479253000000000018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="n">
         <v>-2.10000000000000009</v>
       </c>
       <c r="B31" t="n">
         <v>-0.970452000000000048</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="n">
+        <v>0.0582230000000000025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="n">
         <v>-2</v>
       </c>
       <c r="B32" t="n">
         <v>-0.964028000000000063</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="n">
+        <v>0.0706508000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="n">
         <v>-1.9</v>
       </c>
       <c r="B33" t="n">
         <v>-0.956236999999999959</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="n">
+        <v>0.0856099000000000032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="n">
         <v>-1.8</v>
       </c>
       <c r="B34" t="n">
         <v>-0.946806000000000125</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="n">
+        <v>0.103557999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="n">
         <v>-1.7</v>
       </c>
       <c r="B35" t="n">
         <v>-0.935409000000000113</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="n">
+        <v>0.125010000000000021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="n">
         <v>-1.60000000000000009</v>
       </c>
       <c r="B36" t="n">
         <v>-0.921668999999999983</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="n">
+        <v>0.150526999999999989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="n">
         <v>-1.5</v>
       </c>
       <c r="B37" t="n">
         <v>-0.905147999999999975</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="n">
+        <v>0.180706999999999987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="n">
         <v>-1.39999999999999991</v>
       </c>
       <c r="B38" t="n">
         <v>-0.885351999999999961</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="n">
+        <v>0.216152000000000033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="n">
         <v>-1.30000000000000004</v>
       </c>
       <c r="B39" t="n">
         <v>-0.861722999999999928</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="n">
+        <v>0.257433000000000023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="n">
         <v>-1.19999999999999996</v>
       </c>
       <c r="B40" t="n">
         <v>-0.833655000000000079</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="n">
+        <v>0.305020000000000024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="n">
         <v>-1.10000000000000009</v>
       </c>
       <c r="B41" t="n">
         <v>-0.800498999999999938</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="n">
+        <v>0.359201000000000015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="n">
         <v>-1</v>
       </c>
       <c r="B42" t="n">
         <v>-0.761594000000000015</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="n">
+        <v>0.419974000000000025</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="n">
         <v>-0.9</v>
       </c>
       <c r="B43" t="n">
         <v>-0.716298000000000012</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="n">
+        <v>0.486916999999999955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="n">
         <v>-0.8</v>
       </c>
       <c r="B44" t="n">
         <v>-0.664036999999999988</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="n">
+        <v>0.559054999999999946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="n">
         <v>-0.7</v>
       </c>
       <c r="B45" t="n">
         <v>-0.604368000000000016</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="n">
+        <v>0.634739999999999949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="n">
         <v>-0.6</v>
       </c>
       <c r="B46" t="n">
         <v>-0.537049999999999983</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="n">
+        <v>0.711578000000000088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="n">
         <v>-0.5</v>
       </c>
       <c r="B47" t="n">
         <v>-0.462117000000000022</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="n">
+        <v>0.786448000000000036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="n">
         <v>-0.4</v>
       </c>
       <c r="B48" t="n">
         <v>-0.379948999999999959</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="n">
+        <v>0.855639000000000038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="n">
         <v>-0.3</v>
       </c>
       <c r="B49" t="n">
         <v>-0.291312999999999978</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="n">
+        <v>0.915137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="n">
         <v>-0.2</v>
       </c>
       <c r="B50" t="n">
         <v>-0.197374999999999989</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="n">
+        <v>0.961042999999999914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="n">
         <v>-0.1</v>
       </c>
       <c r="B51" t="n">
         <v>-0.0996679999999999922</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="n">
+        <v>0.990066000000000024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="n">
         <v>-1.026960000000000027E-15</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>-1.026960000000000027E-15</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="n">
         <v>0.1</v>
       </c>
       <c r="B53" t="n">
         <v>0.0996679999999999922</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="n">
+        <v>0.990066000000000024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="n">
         <v>0.2</v>
       </c>
       <c r="B54" t="n">
         <v>0.197374999999999989</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="n">
+        <v>0.961042999999999914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="n">
         <v>0.3</v>
       </c>
       <c r="B55" t="n">
         <v>0.291312999999999978</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="n">
+        <v>0.915137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="n">
         <v>0.4</v>
       </c>
       <c r="B56" t="n">
         <v>0.379948999999999959</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="n">
+        <v>0.855639000000000038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="n">
         <v>0.5</v>
       </c>
       <c r="B57" t="n">
         <v>0.462117000000000022</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="n">
+        <v>0.786448000000000036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="n">
         <v>0.6</v>
       </c>
       <c r="B58" t="n">
         <v>0.537049999999999983</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="n">
+        <v>0.711578000000000088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="n">
         <v>0.7</v>
       </c>
       <c r="B59" t="n">
         <v>0.604368000000000016</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="n">
+        <v>0.634739999999999949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="n">
         <v>0.8</v>
       </c>
       <c r="B60" t="n">
         <v>0.664036999999999988</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="n">
+        <v>0.559054999999999946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="n">
         <v>0.9</v>
       </c>
       <c r="B61" t="n">
         <v>0.716298000000000012</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="n">
+        <v>0.486916999999999955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="n">
         <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0.761594000000000015</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="n">
+        <v>0.419974000000000025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="n">
         <v>1.10000000000000009</v>
       </c>
       <c r="B63" t="n">
         <v>0.800498999999999938</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="n">
+        <v>0.359201000000000015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="n">
         <v>1.19999999999999996</v>
       </c>
       <c r="B64" t="n">
         <v>0.833655000000000079</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="n">
+        <v>0.305020000000000024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="n">
         <v>1.30000000000000004</v>
       </c>
       <c r="B65" t="n">
         <v>0.861722999999999928</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="n">
+        <v>0.257433000000000023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="n">
         <v>1.39999999999999991</v>
       </c>
       <c r="B66" t="n">
         <v>0.885351999999999961</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="n">
+        <v>0.216152000000000033</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="n">
         <v>1.5</v>
       </c>
       <c r="B67" t="n">
         <v>0.905147999999999975</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="n">
+        <v>0.180706999999999987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="n">
         <v>1.60000000000000009</v>
       </c>
       <c r="B68" t="n">
         <v>0.921668999999999983</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="n">
+        <v>0.150526999999999989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="n">
         <v>1.7</v>
       </c>
       <c r="B69" t="n">
         <v>0.935409000000000113</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="n">
+        <v>0.125010000000000021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="n">
         <v>1.8</v>
       </c>
       <c r="B70" t="n">
         <v>0.946806000000000125</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="n">
+        <v>0.103557999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="n">
         <v>1.9</v>
       </c>
       <c r="B71" t="n">
         <v>0.956236999999999959</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="n">
+        <v>0.0856099000000000032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="n">
         <v>2</v>
       </c>
       <c r="B72" t="n">
         <v>0.964028000000000063</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="n">
+        <v>0.0706508000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="n">
         <v>2.10000000000000009</v>
       </c>
       <c r="B73" t="n">
         <v>0.970452000000000048</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="n">
+        <v>0.0582230000000000025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="n">
         <v>2.20000000000000018</v>
       </c>
       <c r="B74" t="n">
         <v>0.975742999999999938</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="n">
+        <v>0.0479253000000000018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="n">
         <v>2.29999999999999982</v>
       </c>
       <c r="B75" t="n">
         <v>0.980095999999999989</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="n">
+        <v>0.0394111000000000011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="n">
         <v>2.39999999999999991</v>
       </c>
       <c r="B76" t="n">
         <v>0.983675000000000033</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="n">
+        <v>0.0323837999999999937</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="n">
         <v>2.5</v>
       </c>
       <c r="B77" t="n">
         <v>0.986613999999999969</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="n">
+        <v>0.0265921999999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="n">
         <v>2.60000000000000009</v>
       </c>
       <c r="B78" t="n">
         <v>0.989026999999999923</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="n">
+        <v>0.0218247999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="n">
         <v>2.70000000000000018</v>
       </c>
       <c r="B79" t="n">
         <v>0.991006999999999927</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" t="n">
+        <v>0.0179041999999999968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="n">
         <v>2.79999999999999982</v>
       </c>
       <c r="B80" t="n">
         <v>0.992632000000000048</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="n">
+        <v>0.0146826999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="n">
         <v>2.9</v>
       </c>
       <c r="B81" t="n">
         <v>0.993963000000000108</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="n">
+        <v>0.012037199999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="n">
         <v>3</v>
       </c>
       <c r="B82" t="n">
         <v>0.995054999999999978</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="n">
+        <v>0.00986603999999999992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="n">
         <v>3.10000000000000009</v>
       </c>
       <c r="B83" t="n">
         <v>0.995948999999999884</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" t="n">
+        <v>0.00808486999999999867</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="n">
         <v>3.20000000000000018</v>
       </c>
       <c r="B84" t="n">
         <v>0.996682000000000023</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" t="n">
+        <v>0.00662420000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="n">
         <v>3.29999999999999982</v>
       </c>
       <c r="B85" t="n">
         <v>0.997283000000000008</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="n">
+        <v>0.0054267000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="n">
         <v>3.39999999999999991</v>
       </c>
       <c r="B86" t="n">
         <v>0.997775000000000034</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" t="n">
+        <v>0.0044451900000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="n">
         <v>3.5</v>
       </c>
       <c r="B87" t="n">
         <v>0.998178000000000054</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="n">
+        <v>0.00364087999999999967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="n">
         <v>3.60000000000000009</v>
       </c>
       <c r="B88" t="n">
         <v>0.998507999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" t="n">
+        <v>0.00298189000000000028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="n">
         <v>3.70000000000000018</v>
       </c>
       <c r="B89" t="n">
         <v>0.998778000000000077</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" t="n">
+        <v>0.00244201999999999986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="n">
         <v>3.79999999999999982</v>
       </c>
       <c r="B90" t="n">
         <v>0.999000000000000021</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="n">
+        <v>0.00199980000000000011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="n">
         <v>3.9</v>
       </c>
       <c r="B91" t="n">
         <v>0.999180999999999919</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="n">
+        <v>0.00163759999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="n">
         <v>4</v>
       </c>
       <c r="B92" t="n">
         <v>0.999329000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="n">
+        <v>0.00134095000000000031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="n">
         <v>4.09999999999999964</v>
       </c>
       <c r="B93" t="n">
         <v>0.999451000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" t="n">
+        <v>0.00109800999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="n">
         <v>4.20000000000000018</v>
       </c>
       <c r="B94" t="n">
         <v>0.999549999999999983</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" t="n">
+        <v>0.000899065000000000047</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="n">
         <v>4.29999999999999982</v>
       </c>
       <c r="B95" t="n">
         <v>0.999631999999999898</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" t="n">
+        <v>0.000736151999999999873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="n">
         <v>4.40000000000000036</v>
       </c>
       <c r="B96" t="n">
         <v>0.999699000000000026</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" t="n">
+        <v>0.000602751000000000037</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="n">
         <v>4.5</v>
       </c>
       <c r="B97" t="n">
         <v>0.999752999999999936</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" t="n">
+        <v>0.000493516999999999939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="n">
         <v>4.59999999999999964</v>
       </c>
       <c r="B98" t="n">
         <v>0.999798000000000009</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="n">
+        <v>0.000404075999999999969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="n">
         <v>4.70000000000000018</v>
       </c>
       <c r="B99" t="n">
         <v>0.999835000000000029</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="n">
+        <v>0.000330842000000000036</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="n">
         <v>4.79999999999999982</v>
       </c>
       <c r="B100" t="n">
         <v>0.999864999999999959</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="n">
+        <v>0.000270877999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="n">
         <v>4.90000000000000036</v>
       </c>
       <c r="B101" t="n">
         <v>0.999888999999999939</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" t="n">
+        <v>0.000221782000000000057</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="n">
         <v>5</v>
       </c>
       <c r="B102" t="n">
         <v>0.99990900000000007</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.000181583000000000023</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1683500826" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1683502642" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4782,15 +9075,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1683500826" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1683500826" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683500826" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683502642" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4801,835 +9094,1144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B102"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="1" max="2" width="11.567568" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="n">
         <v>-5</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="n">
         <v>-4.90000000000000036</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="n">
         <v>-4.79999999999999982</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="n">
         <v>-4.70000000000000018</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="n">
         <v>-4.59999999999999964</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="n">
         <v>-4.5</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="n">
         <v>-4.40000000000000036</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="n">
         <v>-4.29999999999999982</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="n">
         <v>-4.20000000000000018</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="n">
         <v>-4.09999999999999964</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="n">
         <v>-4</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="n">
         <v>-3.9</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="n">
         <v>-3.79999999999999982</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="n">
         <v>-3.70000000000000018</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="n">
         <v>-3.60000000000000009</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="n">
         <v>-3.5</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="n">
         <v>-3.39999999999999991</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="n">
         <v>-3.29999999999999982</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="n">
         <v>-3.20000000000000018</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="n">
         <v>-3.10000000000000009</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="n">
         <v>-3</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="n">
         <v>-2.9</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="n">
         <v>-2.79999999999999982</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="n">
         <v>-2.70000000000000018</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="n">
         <v>-2.60000000000000009</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="n">
         <v>-2.5</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="n">
         <v>-2.39999999999999991</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="n">
         <v>-2.29999999999999982</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="n">
         <v>-2.20000000000000018</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="n">
         <v>-2.10000000000000009</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="n">
         <v>-2</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="n">
         <v>-1.9</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="n">
         <v>-1.8</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="n">
         <v>-1.7</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="n">
         <v>-1.60000000000000009</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="n">
         <v>-1.5</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="n">
         <v>-1.39999999999999991</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="n">
         <v>-1.30000000000000004</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="n">
         <v>-1.19999999999999996</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="n">
         <v>-1.10000000000000009</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="n">
         <v>-1</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="n">
         <v>-0.9</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="n">
         <v>-0.8</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="n">
         <v>-0.7</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="n">
         <v>-0.6</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="n">
         <v>-0.5</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="n">
         <v>-0.4</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="n">
         <v>-0.3</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="n">
         <v>-0.2</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="n">
         <v>-0.1</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="n">
-        <v>-1.026960000000000027E-15</v>
-      </c>
-      <c r="B52" s="2" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="n">
         <v>0.1</v>
       </c>
       <c r="B53" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="n">
         <v>0.2</v>
       </c>
       <c r="B54" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="n">
         <v>0.3</v>
       </c>
       <c r="B55" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="n">
         <v>0.4</v>
       </c>
       <c r="B56" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="n">
         <v>0.5</v>
       </c>
       <c r="B57" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="n">
         <v>0.6</v>
       </c>
       <c r="B58" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="n">
         <v>0.7</v>
       </c>
       <c r="B59" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="n">
         <v>0.8</v>
       </c>
       <c r="B60" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="n">
         <v>0.9</v>
       </c>
       <c r="B61" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="n">
         <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="n">
         <v>1.10000000000000009</v>
       </c>
       <c r="B63" t="n">
         <v>1.10000000000000009</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="n">
         <v>1.19999999999999996</v>
       </c>
       <c r="B64" t="n">
         <v>1.19999999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="n">
         <v>1.30000000000000004</v>
       </c>
       <c r="B65" t="n">
         <v>1.30000000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="n">
         <v>1.39999999999999991</v>
       </c>
       <c r="B66" t="n">
         <v>1.39999999999999991</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="n">
         <v>1.5</v>
       </c>
       <c r="B67" t="n">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="n">
         <v>1.60000000000000009</v>
       </c>
       <c r="B68" t="n">
         <v>1.60000000000000009</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="n">
         <v>1.7</v>
       </c>
       <c r="B69" t="n">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="n">
         <v>1.8</v>
       </c>
       <c r="B70" t="n">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="n">
         <v>1.9</v>
       </c>
       <c r="B71" t="n">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="n">
         <v>2</v>
       </c>
       <c r="B72" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="n">
         <v>2.10000000000000009</v>
       </c>
       <c r="B73" t="n">
         <v>2.10000000000000009</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="n">
         <v>2.20000000000000018</v>
       </c>
       <c r="B74" t="n">
         <v>2.20000000000000018</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="n">
         <v>2.29999999999999982</v>
       </c>
       <c r="B75" t="n">
         <v>2.29999999999999982</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="n">
         <v>2.39999999999999991</v>
       </c>
       <c r="B76" t="n">
         <v>2.39999999999999991</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="n">
         <v>2.5</v>
       </c>
       <c r="B77" t="n">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="n">
         <v>2.60000000000000009</v>
       </c>
       <c r="B78" t="n">
         <v>2.60000000000000009</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="n">
         <v>2.70000000000000018</v>
       </c>
       <c r="B79" t="n">
         <v>2.70000000000000018</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="n">
         <v>2.79999999999999982</v>
       </c>
       <c r="B80" t="n">
         <v>2.79999999999999982</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="n">
         <v>2.9</v>
       </c>
       <c r="B81" t="n">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="n">
         <v>3</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="n">
         <v>3.10000000000000009</v>
       </c>
       <c r="B83" t="n">
         <v>3.10000000000000009</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="n">
         <v>3.20000000000000018</v>
       </c>
       <c r="B84" t="n">
         <v>3.20000000000000018</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="n">
         <v>3.29999999999999982</v>
       </c>
       <c r="B85" t="n">
         <v>3.29999999999999982</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="n">
         <v>3.39999999999999991</v>
       </c>
       <c r="B86" t="n">
         <v>3.39999999999999991</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="n">
         <v>3.5</v>
       </c>
       <c r="B87" t="n">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="n">
         <v>3.60000000000000009</v>
       </c>
       <c r="B88" t="n">
         <v>3.60000000000000009</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="n">
         <v>3.70000000000000018</v>
       </c>
       <c r="B89" t="n">
         <v>3.70000000000000018</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="n">
         <v>3.79999999999999982</v>
       </c>
       <c r="B90" t="n">
         <v>3.79999999999999982</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="n">
         <v>3.9</v>
       </c>
       <c r="B91" t="n">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="n">
         <v>4</v>
       </c>
       <c r="B92" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="n">
         <v>4.09999999999999964</v>
       </c>
       <c r="B93" t="n">
         <v>4.09999999999999964</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="n">
         <v>4.20000000000000018</v>
       </c>
       <c r="B94" t="n">
         <v>4.20000000000000018</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="n">
         <v>4.29999999999999982</v>
       </c>
       <c r="B95" t="n">
         <v>4.29999999999999982</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="n">
         <v>4.40000000000000036</v>
       </c>
       <c r="B96" t="n">
         <v>4.40000000000000036</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="n">
         <v>4.5</v>
       </c>
       <c r="B97" t="n">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="n">
         <v>4.59999999999999964</v>
       </c>
       <c r="B98" t="n">
         <v>4.59999999999999964</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="n">
         <v>4.70000000000000018</v>
       </c>
       <c r="B99" t="n">
         <v>4.70000000000000018</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="n">
         <v>4.79999999999999982</v>
       </c>
       <c r="B100" t="n">
         <v>4.79999999999999982</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="n">
         <v>4.90000000000000036</v>
       </c>
       <c r="B101" t="n">
         <v>4.90000000000000036</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="n">
         <v>5</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1683500826" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1683502642" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5638,15 +10240,1180 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1683500826" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1683500826" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683500826" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683502642" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="1" max="2" width="11.567568" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>-4.90000000000000036</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.90000000000000036</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>-4.79999999999999982</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.79999999999999982</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>-4.70000000000000018</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-4.70000000000000018</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>-4.59999999999999964</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-4.59999999999999964</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>-4.40000000000000036</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.40000000000000036</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>-4.29999999999999982</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-4.29999999999999982</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>-4.20000000000000018</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.20000000000000018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>-4.09999999999999964</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.09999999999999964</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>-3.79999999999999982</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-3.79999999999999982</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>-3.70000000000000018</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-3.70000000000000018</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>-3.60000000000000009</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-3.60000000000000009</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>-3.39999999999999991</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-3.39999999999999991</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>-3.29999999999999982</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-3.29999999999999982</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>-3.20000000000000018</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-3.20000000000000018</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>-3.10000000000000009</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.10000000000000009</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>-2.79999999999999982</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.79999999999999982</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>-2.70000000000000018</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.70000000000000018</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>-2.60000000000000009</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.60000000000000009</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>-2.39999999999999991</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.39999999999999991</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>-2.29999999999999982</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.29999999999999982</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>-2.20000000000000018</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.20000000000000018</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>-2.10000000000000009</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.10000000000000009</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>-1.60000000000000009</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.60000000000000009</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>-1.39999999999999991</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.39999999999999991</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>-1.30000000000000004</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.30000000000000004</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>-1.19999999999999996</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.19999999999999996</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>-1.10000000000000009</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.10000000000000009</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="n">
+        <v>-1.026960000000000027E-15</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>-1.026960000000000027E-15</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>1.10000000000000009</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.10000000000000009</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>1.19999999999999996</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.19999999999999996</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>1.30000000000000004</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.30000000000000004</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>1.39999999999999991</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.39999999999999991</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>1.60000000000000009</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.60000000000000009</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>2.10000000000000009</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.10000000000000009</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>2.20000000000000018</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.20000000000000018</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>2.29999999999999982</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.29999999999999982</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>2.39999999999999991</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.39999999999999991</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>2.60000000000000009</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.60000000000000009</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>2.70000000000000018</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.70000000000000018</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>2.79999999999999982</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.79999999999999982</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>3.10000000000000009</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.10000000000000009</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>3.20000000000000018</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.20000000000000018</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>3.29999999999999982</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.29999999999999982</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>3.39999999999999991</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.39999999999999991</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>3.60000000000000009</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.60000000000000009</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>3.70000000000000018</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.70000000000000018</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>3.79999999999999982</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.79999999999999982</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>4</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>4.09999999999999964</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.09999999999999964</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>4.20000000000000018</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.20000000000000018</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>4.29999999999999982</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.29999999999999982</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>4.40000000000000036</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.40000000000000036</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>4.59999999999999964</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.59999999999999964</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>4.70000000000000018</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.70000000000000018</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>4.79999999999999982</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.79999999999999982</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>4.90000000000000036</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.90000000000000036</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1683502642" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1683502642" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1683502642" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
